--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Chủ Nghĩa Xã Hội Khoa Học/Danh sách câu hỏi hay làm sai.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Chủ Nghĩa Xã Hội Khoa Học/Danh sách câu hỏi hay làm sai.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
-  </si>
-  <si>
-    <t>Ai đã đưa ra quan niệm "CNXH là sự phản kháng và đấu tranh chống sự bóc lột người lao động, một cuộc đấu tranh nhằm hoàn toàn xoá bỏ sự bóc lột"</t>
-  </si>
-  <si>
-    <t>C.Mác</t>
-  </si>
-  <si>
-    <t>Ph.Ănghen</t>
-  </si>
-  <si>
-    <t>V.I.Lênin</t>
-  </si>
-  <si>
-    <t>S.Phuriê</t>
   </si>
 </sst>
 </file>
@@ -90,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -116,26 +101,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Chủ Nghĩa Xã Hội Khoa Học/Danh sách câu hỏi hay làm sai.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Chủ Nghĩa Xã Hội Khoa Học/Danh sách câu hỏi hay làm sai.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -30,6 +30,213 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Cương lĩnh xây dựng đất nước trong thời kỳ quá độ lên chủ nghĩa xã hội được Đảng ta thông qua tại Đại hội nào?</t>
+  </si>
+  <si>
+    <t>Đại hội VIII</t>
+  </si>
+  <si>
+    <t>Đại hội IX</t>
+  </si>
+  <si>
+    <t>Đại hội X</t>
+  </si>
+  <si>
+    <t>Đại hội VII</t>
+  </si>
+  <si>
+    <t>Lênin cho rằng, đối với những nước chưa có chủ nghĩa tư bản phát triển cao cần:</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chủ nghĩa tư bản lên chủ nghĩa đế quốc</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chiếm hữu nô lệ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ xã hội phong kiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chủ nghĩa tư bản lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cơ sở vật chất – kỹ thuật của chủ nghĩa xã hội là?</t>
+  </si>
+  <si>
+    <t>Nền sản xuất công nghiệp hiện đại</t>
+  </si>
+  <si>
+    <t>Nền nông nghiệp truyền thống</t>
+  </si>
+  <si>
+    <t>Nền kinh tế thị trường</t>
+  </si>
+  <si>
+    <t>Nền kinh tế thị trường định hướng tư bản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Theo Hồ Chí Minh, cách mạng giải phóng dân tộc muốn thắng lợi phải làm gì?</t>
+  </si>
+  <si>
+    <t>Đi theo con đường của cách mạng Pháp, Mỹ</t>
+  </si>
+  <si>
+    <t>Đi theo khuynh hướng tư sản</t>
+  </si>
+  <si>
+    <t>Đi theo con đường của cách mạng vô sản</t>
+  </si>
+  <si>
+    <t>Đi theo khuynh hướng Phong kiến</t>
+  </si>
+  <si>
+    <t>Sau Chiến tranh thế giới thứ hai, hệ thống XHCN ra đời, CNTB phương Tây thi hành hàng loạt biện pháp:</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1948); chiến tranh lạnh chống phe XHCN (1945 - 1991); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961).</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1945); chiến tranh lạnh chống phe XHCN (1945 - 1995); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961).</t>
+  </si>
+  <si>
+    <t>Từ tự do cạnh tranh chuyển thành độc quyền quốc tế; thiết lập trật tự thế giới do phương Tây dẫn dắt với các định chế kinh tế, chính trị, quân sự khu vực và toàn cầu, như NATO, IMF, WB, WTO để thống trị, chi phối thế giới; đẩy mạnh cải tiến quản lý sản xuất; chia sẻ lợi nhuận cho bộ phận công nhân quý tộc, tạo cách biệt giữa công nhân phương Tây với công nhân các nước đang phát triển để tiếp tục bóc lột các nước đó; thúc đẩy cách mạng khoa học - kỹ thuật để tăng năng suất lao động, phát triển sản xuất; tấn công phe XHCN về mọi mặt bằng Chiến tranh lạnh, chiến tranh nóng cục bộ, răn đe hạt nhân...</t>
+  </si>
+  <si>
+    <t>Từ độc quyền nhà nước chuyển thành độc quyền quốc tế; thiết lập trật tự thế giới do phương Tây dẫn dắt với các định chế kinh tế, chính trị, quân sự khu vực và toàn cầu, như NATO, IMF, WB, WTO để thống trị, chi phối thế giới; đẩy mạnh cải tiến quản lý sản xuất; chia sẻ lợi nhuận cho bộ phận công nhân quý tộc, tạo cách biệt giữa công nhân phương Tây với công nhân các nước đang phát triển để tiếp tục bóc lột các nước đó; thúc đẩy cách mạng khoa học - kỹ thuật để tăng năng suất lao động, phát triển sản xuất; tấn công phe XHCN về mọi mặt bằng Chiến tranh lạnh, chiến tranh nóng cục bộ, răn đe hạt nhân...</t>
+  </si>
+  <si>
+    <t>Một trong những điểm nhấn sáng tạo của Ph. Ăngghen là:</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường quá độ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy siêu hình về con đường quá độ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường phát triển tư bản</t>
+  </si>
+  <si>
+    <t>Sau Cách mạng Tháng Mười Nga năm 1917, V. I. Lênin cho rằng các nước lạc hậu phụ thuộc, thuộc địa ở phương Đông cũng có thể?</t>
+  </si>
+  <si>
+    <t>Thực hiện công nghiệp hóa, hiện đại hóa và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Thực hiện cách mạng TBCN và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Rút ngắn tiến trình đi lên CNXH</t>
+  </si>
+  <si>
+    <t>Thực hiện cách mạng XHCN và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Cách mạng Tháng Mười khởi đầu TKQĐ gián tiếp ở nước Nga, đồng thời mở ra:</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH ở các nước phương Tây”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH trên phạm vi toàn thế giới”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ xã hội phong kiến lên CNXH trên phạm vi toàn thế giới”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH ở các nước thuộc địa”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo V. I. Lênin, từ cuối thế kỷ XIX, CNTB có nhiều biến chuyển quan trọng: </t>
+  </si>
+  <si>
+    <t>Chủ nghĩa tư bản chuyển biến từ giai đoạn tự do cạnh tranh sang giai đoạn đi lên CNXH</t>
+  </si>
+  <si>
+    <t>Từ độc quyền thay thế cạnh tranh, việc mở mang thị trường thế giới đã đạt đến giới hạn địa lý toàn cầu</t>
+  </si>
+  <si>
+    <t>Không phải trải qua giai đoạn phát triển TBCN</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng của Ph. Ăngghen về phương thức phát triển “rút ngắn” cho thấy rõ, nước ta có điều kiện để:</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ tư bản chủ nghĩa tiến thẳng tới cộng sản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ tư bản chủ nghĩa để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ chiếm hữu nô lệ để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ phong kiến để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Hệ tư tưởng XHCN được thể hiện tập trung ở đâu?</t>
+  </si>
+  <si>
+    <t>Hệ thống chính sách chủ trương của đảng và nhà nước</t>
+  </si>
+  <si>
+    <t>Toàn bộ hệ thống lý luận của chủ nghĩa Mác – Lênin</t>
+  </si>
+  <si>
+    <t>Hệ thống tư tưởng của các cá nhân trong xã hội XHCN</t>
+  </si>
+  <si>
+    <t>Trong tất cả các yếu tố trên.</t>
+  </si>
+  <si>
+    <t>Giữa chức năng bạo lực, trấn áp và chức năng tổ chức, xây dựng của nhà nước vô sản thì chức năng nào là quan trọng?</t>
+  </si>
+  <si>
+    <t>Tổ chức, xây dựng là chính</t>
+  </si>
+  <si>
+    <t>Tổ chức là chính</t>
+  </si>
+  <si>
+    <t>Bạo lực trấn ấp là chính</t>
+  </si>
+  <si>
+    <t>Quan trọng như nhau</t>
+  </si>
+  <si>
+    <t>Kinh tế thị trường phát triển theo cơ cấu :</t>
+  </si>
+  <si>
+    <t>Là nền kinh tế mở.</t>
+  </si>
+  <si>
+    <t>Là nền kinh tế độc lập</t>
+  </si>
+  <si>
+    <t>Là nền kinh tế nghèo nàn</t>
+  </si>
+  <si>
+    <t>Là nền kinh tế khép kín</t>
+  </si>
+  <si>
+    <t>Bản chất giai cấp của nhà nước XHCN là gì?</t>
+  </si>
+  <si>
+    <t>Mang bản chất GCCN</t>
+  </si>
+  <si>
+    <t>Mang tính nhân dân rộng rãi và tính dân tộc sâu sắc</t>
+  </si>
+  <si>
+    <t>Mang bản chất GCCN, tính nhân dân rộng rãi và tính dân tộc sâu sắc</t>
+  </si>
+  <si>
+    <t>Mang bản chất của đa số nhân dân lao động</t>
   </si>
 </sst>
 </file>
@@ -75,7 +282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -101,6 +308,286 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
